--- a/output/chunk_3_13-02-2024.xlsx
+++ b/output/chunk_3_13-02-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,20 +2038,16 @@
           <t>HL3Z 8327 A</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>355447504883</t>
-        </is>
+      <c r="C20" t="n">
+        <v>355447504883</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>['https://i.ebayimg.com/00/s/NTAwWDUwMA==/z/2XwAAOSw679lxCfS/$_1.JPG?set_id=8800005007']</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>46096</t>
-        </is>
+      <c r="E20" t="n">
+        <v>46096</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2093,27 +2089,355 @@
         </is>
       </c>
       <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+      <c r="V20" t="n">
+        <v>2017</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Genuine Ford Lower Deflector HL3Z-8327-A</t>
+        </is>
+      </c>
+      <c r="Y20" t="n">
+        <v>81.52</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HL3Z 8501 A</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>126132067138</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MTAwMFgxMDAw/z/jSgAAOSwCaVlJbDO/$_1.JPG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>33604</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Engine Cooling Components:Water Pumps</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>PW574</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>683058196194</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>F-150</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>HL3Z-8501-A HL3Z 8501 A HL3Z 8501-A PW602</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Rareelectrical</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Water Pump</t>
+        </is>
+      </c>
+      <c r="V21" t="n">
+        <v>2017</v>
+      </c>
+      <c r="W21" t="n">
+        <v>23</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>WATER PUMP WATER PUMP FITS FORD F-150 LARIAT RAPTOR 3.5L 2017 HL3Z8501A PW574</t>
+        </is>
+      </c>
+      <c r="Y21" t="n">
+        <v>59.88</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>[{'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'King Ranch Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Lariat Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Lariat Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Limited Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Platinum Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'SSV Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'SSV Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Standard Cab Pickup 2-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Standard Cab Pickup 2-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Standard Cab Pickup 2-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Standard Cab Pickup 2-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Standard Cab Pickup 2-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HL3Z 8348 A</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>355447509300</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/MjUzWDY0MA==/z/QPUAAOSwSHplxCfB/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>262122</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Engine Cooling Components:Gaskets, Seals &amp; O-Rings</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>HL3Z-8348-A</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Expedition</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="W22" t="n">
+        <v>64</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Genuine Ford Upper Seal HL3Z-8348-A</t>
+        </is>
+      </c>
+      <c r="Y22" t="n">
+        <v>29.05</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>[{'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'King Ranch Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Lariat Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Platinum Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'SSV Extended Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Crew Cab Pickup 4-Door', 'Engine': '3.3L 3343CC 204Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Standard Cab Pickup 2-Door', 'Engine': '3.3L 3343CC 204Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2023', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Standard Cab Pickup 2-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'King Ranch Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Lariat Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Platinum Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'SSV Extended Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Crew Cab Pickup 4-Door', 'Engine': '3.3L 3343CC 204Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Standard Cab Pickup 2-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Crew Cab Pickup 4-Door', 'Engine': '3.3L 3343CC 204Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2022', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'King Ranch Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max King Ranch Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'King Ranch Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Lariat Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Platinum Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'SSV Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Crew Cab Pickup 4-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XL Standard Cab Pickup 2-Door', 'Engine': '3.3L 3343CC 204Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Crew Cab Pickup 4-Door', 'Engine': '3.3L 3343CC 204Cu. In. V6 FLEX DOHC Naturally Aspirated'}, {'Year': '2021', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'XLT Standard Cab Pickup 2-Door', 'Engine': '5.0L 4951CC 302Cu. In. V8 FLEX DOHC Naturally Aspirated'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'King Ranch Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max King Ranch Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max XL Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'XL Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Limited Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max XL Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Max XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'Platinum Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'SSV Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'XL Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'Expedition', 'Trim': 'XLT Sport Utility 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HL3Z 8348 B</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>364365271947</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/ODkzWDY0MA==/z/cTsAAOSwyAVkurJr/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>33645</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Grilles</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>HL3Z-8348-B</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>F-150</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>2017</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Genuine Ford Side Seal HL3Z-8348-B</t>
+        </is>
+      </c>
+      <c r="Y23" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>[{'Year': '2020', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2020', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HL3Z 8348 C</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>403446465953</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['https://i.ebayimg.com/00/s/ODkzWDY0MA==/z/lXQAAOSw7~9h-kix/$_12.PNG?set_id=880000500F']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33645</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>eBay Motors:Parts &amp; Accessories:Car &amp; Truck Parts &amp; Accessories:Exterior Parts &amp; Accessories:Grilles</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>HL3Z-8348-C</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>F-150</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Genuine Ford Lower Deflector HL3Z-8327-A</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>81.52</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Genuine Ford Side Seal HL3Z-8348-C</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>[{'Year': '2020', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2019', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2018', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Extended Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}, {'Year': '2017', 'Make': 'Ford', 'Model': 'F-150', 'Trim': 'Raptor Crew Cab Pickup 4-Door', 'Engine': '3.5L 3496CC 213Cu. In. V6 GAS DOHC Turbocharged'}]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
